--- a/tut05/output/0501CS02.xlsx
+++ b/tut05/output/0501CS02.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.285714285714286</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>7.977272727272728</v>
+        <v>7.98</v>
       </c>
       <c r="D6" t="n">
-        <v>7.581395348837209</v>
+        <v>7.58</v>
       </c>
       <c r="E6" t="n">
-        <v>8.063829787234043</v>
+        <v>8.06</v>
       </c>
       <c r="F6" t="n">
-        <v>6.904761904761905</v>
+        <v>6.9</v>
       </c>
       <c r="G6" t="n">
         <v>7.7</v>
       </c>
       <c r="H6" t="n">
-        <v>7.560975609756097</v>
+        <v>7.56</v>
       </c>
       <c r="I6" t="n">
         <v>8.65</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.285714285714286</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>8.13978494623656</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>7.963235294117647</v>
+        <v>7.96</v>
       </c>
       <c r="E8" t="n">
-        <v>7.989071038251367</v>
+        <v>7.99</v>
       </c>
       <c r="F8" t="n">
-        <v>7.786666666666667</v>
+        <v>7.79</v>
       </c>
       <c r="G8" t="n">
-        <v>7.773584905660377</v>
+        <v>7.77</v>
       </c>
       <c r="H8" t="n">
-        <v>7.745098039215686</v>
+        <v>7.75</v>
       </c>
       <c r="I8" t="n">
-        <v>7.84971098265896</v>
+        <v>7.85</v>
       </c>
     </row>
   </sheetData>
